--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL379_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL379_00001.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\IRAD\IRAD 2015\Programs\OOI Phase 2\Post Delivery 7 support\Asset Management Data\ingestion-csvs_20151204\ingestion-csvs\CP05MOAS-GL379\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="684" yWindow="660" windowWidth="23184" windowHeight="7920" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="690" yWindow="660" windowWidth="23190" windowHeight="7920" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
   <si>
     <t>Ref Des</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>N00047</t>
+  </si>
+  <si>
+    <t>CC_bsipar_par_scaling</t>
   </si>
 </sst>
 </file>
@@ -258,7 +261,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,6 +277,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,7 +342,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -394,6 +403,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -525,7 +537,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -560,7 +572,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -775,17 +787,17 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="9" width="16.77734375" customWidth="1"/>
-    <col min="10" max="11" width="10.44140625" customWidth="1"/>
-    <col min="12" max="12" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="9" width="16.7109375" customWidth="1"/>
+    <col min="10" max="11" width="10.42578125" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>34</v>
       </c>
@@ -823,7 +835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -884,22 +896,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" customWidth="1"/>
-    <col min="5" max="5" width="26.109375" customWidth="1"/>
-    <col min="6" max="6" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="28.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -925,7 +937,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
@@ -960,7 +972,7 @@
       <c r="P2" s="12"/>
       <c r="Q2" s="12"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -995,7 +1007,7 @@
       <c r="P3" s="12"/>
       <c r="Q3" s="12"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
@@ -1030,7 +1042,7 @@
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -1065,7 +1077,7 @@
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="9"/>
@@ -1084,7 +1096,7 @@
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
     </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
@@ -1114,7 +1126,7 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -1144,7 +1156,7 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
     </row>
-    <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -1174,7 +1186,7 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
     </row>
-    <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -1204,7 +1216,7 @@
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" spans="1:17" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="9"/>
@@ -1218,7 +1230,7 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>26</v>
       </c>
@@ -1244,7 +1256,7 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="13" spans="1:17" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="9"/>
@@ -1258,7 +1270,7 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
     </row>
-    <row r="14" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>27</v>
       </c>
@@ -1284,7 +1296,7 @@
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
     </row>
-    <row r="15" spans="1:17" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="9"/>
@@ -1298,7 +1310,7 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>28</v>
       </c>
@@ -1317,14 +1329,18 @@
       <c r="F16" s="13">
         <v>50158</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
+      <c r="G16" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="25">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" spans="1:12" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="9"/>
@@ -1338,7 +1354,7 @@
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
     </row>
-    <row r="18" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>29</v>
       </c>
@@ -1362,7 +1378,7 @@
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
     </row>
-    <row r="19" spans="1:12" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="9"/>

--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL379_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL379_00001.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="690" yWindow="660" windowWidth="23190" windowHeight="7920" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="690" yWindow="660" windowWidth="23190" windowHeight="7920" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>Ref Des</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>CC_bsipar_par_scaling</t>
+  </si>
+  <si>
+    <t>OL000354</t>
   </si>
 </sst>
 </file>
@@ -783,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1367,7 +1370,9 @@
       <c r="D18" s="9">
         <v>1</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
       <c r="F18" s="20">
         <v>379</v>
       </c>

--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL379_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL379_00001.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="660" windowWidth="23190" windowHeight="7920" tabRatio="377"/>
+    <workbookView xWindow="700" yWindow="660" windowWidth="28620" windowHeight="9960" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -35,7 +30,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$B$1:$K$78</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$H$350</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -540,7 +535,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -575,7 +570,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -787,20 +782,20 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="9" width="16.7109375" customWidth="1"/>
-    <col min="10" max="11" width="10.42578125" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="9" width="16.6640625" customWidth="1"/>
+    <col min="10" max="11" width="10.5" customWidth="1"/>
+    <col min="12" max="12" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="28">
       <c r="A1" s="23" t="s">
         <v>34</v>
       </c>
@@ -838,7 +833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="3" customFormat="1" ht="15">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -852,7 +847,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="19">
-        <v>41750</v>
+        <v>41744</v>
       </c>
       <c r="F2" s="5">
         <v>0.55208333333333337</v>
@@ -903,18 +898,18 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="28.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -940,7 +935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
@@ -975,7 +970,7 @@
       <c r="P2" s="12"/>
       <c r="Q2" s="12"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -1010,7 +1005,7 @@
       <c r="P3" s="12"/>
       <c r="Q3" s="12"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
@@ -1045,7 +1040,7 @@
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -1080,7 +1075,7 @@
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="9"/>
@@ -1099,7 +1094,7 @@
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
     </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" s="1" customFormat="1">
       <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
@@ -1129,7 +1124,7 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -1159,7 +1154,7 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
     </row>
-    <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="1" customFormat="1">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -1189,7 +1184,7 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
     </row>
-    <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="1" customFormat="1">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -1219,7 +1214,7 @@
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" spans="1:17" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" s="1" customFormat="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="9"/>
@@ -1233,7 +1228,7 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" s="1" customFormat="1">
       <c r="A12" s="6" t="s">
         <v>26</v>
       </c>
@@ -1259,7 +1254,7 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="13" spans="1:17" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" s="1" customFormat="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="9"/>
@@ -1273,7 +1268,7 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
     </row>
-    <row r="14" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" s="1" customFormat="1">
       <c r="A14" s="6" t="s">
         <v>27</v>
       </c>
@@ -1299,7 +1294,7 @@
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
     </row>
-    <row r="15" spans="1:17" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" s="1" customFormat="1">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="9"/>
@@ -1313,7 +1308,7 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" s="1" customFormat="1">
       <c r="A16" s="6" t="s">
         <v>28</v>
       </c>
@@ -1343,7 +1338,7 @@
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" s="1" customFormat="1">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="9"/>
@@ -1357,7 +1352,7 @@
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
     </row>
-    <row r="18" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" s="1" customFormat="1">
       <c r="A18" s="6" t="s">
         <v>29</v>
       </c>
@@ -1383,7 +1378,7 @@
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
     </row>
-    <row r="19" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" s="1" customFormat="1">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="9"/>
